--- a/wortschatz-m/b-der mensch.xlsx
+++ b/wortschatz-m/b-der mensch.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="292" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="292"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
   <si>
     <t>dick-dünn</t>
   </si>
@@ -170,12 +169,6 @@
     <t>potargany-dobrze uczesany</t>
   </si>
   <si>
-    <t>schütteres Haar-dichtes Haar</t>
-  </si>
-  <si>
-    <t>altbacken Frisur-modisch Frisur</t>
-  </si>
-  <si>
     <t>schlampig-elegant</t>
   </si>
   <si>
@@ -203,9 +196,6 @@
     <t>Er kann niemandem ein Haar krümmen.</t>
   </si>
   <si>
-    <t>Aber das ist doch and den Haaren herbeigezogen!</t>
-  </si>
-  <si>
     <t>Das wäre um ein Haar schiefgegangen.</t>
   </si>
   <si>
@@ -233,9 +223,6 @@
     <t>geduldig-ungeduldig</t>
   </si>
   <si>
-    <t>gerecht</t>
-  </si>
-  <si>
     <t>gut gelaunt</t>
   </si>
   <si>
@@ -245,9 +232,6 @@
     <t>ernst</t>
   </si>
   <si>
-    <t>entspannt</t>
-  </si>
-  <si>
     <t>freundlich-unfreundlich</t>
   </si>
   <si>
@@ -290,9 +274,6 @@
     <t>optimistisch-pessimistisch</t>
   </si>
   <si>
-    <t>locker-pinkelig</t>
-  </si>
-  <si>
     <t>bescheiden-eingebildet</t>
   </si>
   <si>
@@ -356,9 +337,6 @@
     <t>ordentlich</t>
   </si>
   <si>
-    <t>unkultiviert</t>
-  </si>
-  <si>
     <t>unausgeglichen</t>
   </si>
   <si>
@@ -386,12 +364,6 @@
     <t>plumpt</t>
   </si>
   <si>
-    <t>ungeschickt</t>
-  </si>
-  <si>
-    <t>Er verdient genug, dreht aber jeden Pfennig dreimal um.</t>
-  </si>
-  <si>
     <t>Abwarten und Tee trinken.</t>
   </si>
   <si>
@@ -402,35 +374,293 @@
   </si>
   <si>
     <t>Er hat das Herz auf dem rechten Fleck.</t>
+  </si>
+  <si>
+    <t>rzadkie włosy-gęste włosy</t>
+  </si>
+  <si>
+    <t>schütteres-dichtes Haar</t>
+  </si>
+  <si>
+    <t>altbackene-modische Frisur</t>
+  </si>
+  <si>
+    <t>staroświecka/modna fryzura</t>
+  </si>
+  <si>
+    <t>niechlujny/elegancki</t>
+  </si>
+  <si>
+    <t>surowy</t>
+  </si>
+  <si>
+    <t>miły, sympatyczny</t>
+  </si>
+  <si>
+    <t>zdystansowany</t>
+  </si>
+  <si>
+    <t>miły dla dzieci</t>
+  </si>
+  <si>
+    <t>niezawodny</t>
+  </si>
+  <si>
+    <t>cierpliwy/niecierpliwy</t>
+  </si>
+  <si>
+    <t>sprawiedliwy/niesprawiedliwy</t>
+  </si>
+  <si>
+    <t>gerecht/ungerecht</t>
+  </si>
+  <si>
+    <t>w dobrym humorze</t>
+  </si>
+  <si>
+    <t>egoistyczny</t>
+  </si>
+  <si>
+    <t>poważny</t>
+  </si>
+  <si>
+    <t>entspannt/gespannt</t>
+  </si>
+  <si>
+    <t>rozluźniony/spięty</t>
+  </si>
+  <si>
+    <t>przyjazny/nieprzyjazny</t>
+  </si>
+  <si>
+    <t>uprzejmy/nieuprzejmy</t>
+  </si>
+  <si>
+    <t>sympatyczny/niesympatyczny</t>
+  </si>
+  <si>
+    <t>pracowity/leniwy</t>
+  </si>
+  <si>
+    <t>interesujący/nudny</t>
+  </si>
+  <si>
+    <t>tchórzliwy/odważny</t>
+  </si>
+  <si>
+    <t>rozsądny/nierozsądny</t>
+  </si>
+  <si>
+    <t>głupi/mądry</t>
+  </si>
+  <si>
+    <t>tolerancyjny/nietolerancyjny</t>
+  </si>
+  <si>
+    <t>wesoły/smutny</t>
+  </si>
+  <si>
+    <t>czuły/nieczuły</t>
+  </si>
+  <si>
+    <t>bezczelny/grzeczny</t>
+  </si>
+  <si>
+    <t>towarzyski/powściągliwy</t>
+  </si>
+  <si>
+    <t>optymistyczny/pesymistyczny</t>
+  </si>
+  <si>
+    <t>rozluźniony/drobiazgowy</t>
+  </si>
+  <si>
+    <t>locker-pingelig</t>
+  </si>
+  <si>
+    <t>skromny/zarozumiały</t>
+  </si>
+  <si>
+    <t>konserwatywny/postępowy</t>
+  </si>
+  <si>
+    <t>aktywny/pasywny</t>
+  </si>
+  <si>
+    <t>pocieszny/smutny</t>
+  </si>
+  <si>
+    <t>dobry/zły</t>
+  </si>
+  <si>
+    <t>żywiołowy</t>
+  </si>
+  <si>
+    <t>serdeczny, ciepły</t>
+  </si>
+  <si>
+    <t>pełen fantazji</t>
+  </si>
+  <si>
+    <t>szarmancki</t>
+  </si>
+  <si>
+    <t>o wielostronnych zainteresowaniach</t>
+  </si>
+  <si>
+    <t>ustabilizowany zawodowo</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>predyspozycje, uzdolnienie</t>
+  </si>
+  <si>
+    <t>wytrzymały</t>
+  </si>
+  <si>
+    <t>otwarty-skryty</t>
+  </si>
+  <si>
+    <t>specyficzny, osobliwy (człowiek)</t>
+  </si>
+  <si>
+    <t>pewny siebie</t>
+  </si>
+  <si>
+    <t>uprzejmy</t>
+  </si>
+  <si>
+    <t>arogancki</t>
+  </si>
+  <si>
+    <t>powierzchowny</t>
+  </si>
+  <si>
+    <t>grymaśny</t>
+  </si>
+  <si>
+    <t>porządny, solidny (człowiek)</t>
+  </si>
+  <si>
+    <t>kultiviert/unkultiviert</t>
+  </si>
+  <si>
+    <t>kulturalny/niekulturalny</t>
+  </si>
+  <si>
+    <t>niezrównoważony (człowiek)</t>
+  </si>
+  <si>
+    <t>uparty jak kozioł</t>
+  </si>
+  <si>
+    <t>łagodny jak baranek</t>
+  </si>
+  <si>
+    <t>chytry jak lis</t>
+  </si>
+  <si>
+    <t>odważny jak lew</t>
+  </si>
+  <si>
+    <t>wyjątkowo bezczelny</t>
+  </si>
+  <si>
+    <t>pracowity jak pszczoła</t>
+  </si>
+  <si>
+    <t>ociężały</t>
+  </si>
+  <si>
+    <t>geschickt/ungeschickt</t>
+  </si>
+  <si>
+    <t>zreczny/niezręczny</t>
+  </si>
+  <si>
+    <t>silny</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Nie jesteś głupi. (przysł.)</t>
+  </si>
+  <si>
+    <t>Możesz przymknąć na to oko. (przysł.)</t>
+  </si>
+  <si>
+    <t>On jest altruistą. (przysł.)</t>
+  </si>
+  <si>
+    <t>Zachowuje się jak słoń w składzie porcelany.</t>
+  </si>
+  <si>
+    <t>Er dreht jeden Pfennig dreimal um.</t>
+  </si>
+  <si>
+    <t>On jest bardzo oszczędny. (przysł.)</t>
+  </si>
+  <si>
+    <t>Trzeba spokojnie odczekać. (przysł.)</t>
+  </si>
+  <si>
+    <t>Nie martw się o to. (przysł.)</t>
+  </si>
+  <si>
+    <t>Włosy stają mi dęba. (przysł.)</t>
+  </si>
+  <si>
+    <t>Ona zawsze znajdzie coś do skrytykowania. (przysł.)</t>
+  </si>
+  <si>
+    <t>On zawsze ją krytykuje. (przysł.)</t>
+  </si>
+  <si>
+    <t>Bardzo dużo jecie. (przysł.)</t>
+  </si>
+  <si>
+    <t>Ona szuka kłótni i chce mieć zawsze rację. (przysł.)</t>
+  </si>
+  <si>
+    <t>To jest nie do pomyślenia. (przysł.)</t>
+  </si>
+  <si>
+    <t>On nie skrzywdziłby nikogo. (przysł.)</t>
+  </si>
+  <si>
+    <t>gutmütig</t>
+  </si>
+  <si>
+    <t>dobroduszny</t>
+  </si>
+  <si>
+    <t>Aber das ist doch an den Haaren herbeigezogen!</t>
+  </si>
+  <si>
+    <t>To nie ma żadnego związku z problemem. (przysł.)</t>
+  </si>
+  <si>
+    <t>O mały włos poszłoby źle.</t>
+  </si>
+  <si>
+    <t>Oni znowu się pokłócili. (przysł.)</t>
+  </si>
+  <si>
+    <t>To jest dzielenie włosa na czworo! (przysł.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -442,7 +672,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -450,667 +680,1175 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.28571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.9948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="16.8469387755102"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="4" width="36.44140625"/>
+    <col min="5" max="1025" width="16.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:3" ht="14.55" customHeight="1">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:3" ht="14.55" customHeight="1">
+      <c r="A23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:3" ht="14.55" customHeight="1">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="C30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="C34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="C35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+      <c r="C37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B41" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B42" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B43" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B49" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B50" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B51" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B53" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="C53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B54" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B55" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B56" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B57" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B59" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B60" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B61" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B62" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B63" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+      <c r="C63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B65" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B66" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B68" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B69" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
+      <c r="C69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B70" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
+      <c r="C70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B71" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B72" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B73" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B74" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B75" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+      <c r="C75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B76" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B77" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+      <c r="C77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B78" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.55" customHeight="1">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
+      <c r="C79" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.55" customHeight="1">
+      <c r="B80" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B81" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B82" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B83" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
+      <c r="C83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B84" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B85" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
+      <c r="C85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B86" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
+      <c r="C86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B87" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B88" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B89" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B90" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B91" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B92" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
+      <c r="C92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B93" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B94" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="C94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B95" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+      <c r="C95" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B96" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
+      <c r="C96" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B97" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
+      <c r="C97" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B98" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
+      <c r="C98" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B101" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B102" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
+      <c r="C102" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B103" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
+      <c r="C103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="14.55" customHeight="1">
+      <c r="B104" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
-        <v>128</v>
+      <c r="C104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/wortschatz-m/b-der mensch.xlsx
+++ b/wortschatz-m/b-der mensch.xlsx
@@ -9,30 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
-  <si>
-    <t>dick-dünn</t>
-  </si>
-  <si>
-    <t>gruby-chudy</t>
-  </si>
-  <si>
-    <t>hässlich-schön</t>
-  </si>
-  <si>
-    <t>brzydki-ładny</t>
-  </si>
-  <si>
-    <t>übergewichtig-untergewichtig</t>
-  </si>
-  <si>
-    <t>z nadwagą-z niedowagą</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="278">
   <si>
     <t>kräftig</t>
   </si>
@@ -79,12 +61,6 @@
     <t>ładny (h)</t>
   </si>
   <si>
-    <t>gepflegt-ungepflegt</t>
-  </si>
-  <si>
-    <t>zadbany-zaniedbany</t>
-  </si>
-  <si>
     <t>muskulös</t>
   </si>
   <si>
@@ -97,12 +73,6 @@
     <t>barczysty</t>
   </si>
   <si>
-    <t>schmutzig-sauber</t>
-  </si>
-  <si>
-    <t>brudny-czysty</t>
-  </si>
-  <si>
     <t>schmuddelig</t>
   </si>
   <si>
@@ -121,18 +91,6 @@
     <t>nieświeży</t>
   </si>
   <si>
-    <t>rundliches Gesicht</t>
-  </si>
-  <si>
-    <t>okrągła twarz</t>
-  </si>
-  <si>
-    <t>schmales Gesicht</t>
-  </si>
-  <si>
-    <t>szczupła twarz</t>
-  </si>
-  <si>
     <t>faltig</t>
   </si>
   <si>
@@ -157,54 +115,6 @@
     <t>broda zakrywająca twarz</t>
   </si>
   <si>
-    <t>gekämmt-ungekämmt</t>
-  </si>
-  <si>
-    <t>uczesany-nieuczesany</t>
-  </si>
-  <si>
-    <t>zerzaust-gut frisiert</t>
-  </si>
-  <si>
-    <t>potargany-dobrze uczesany</t>
-  </si>
-  <si>
-    <t>schlampig-elegant</t>
-  </si>
-  <si>
-    <t>Lass dir deshalb keine grauen Haare wachsen.</t>
-  </si>
-  <si>
-    <t>Da stehen mir ja die Haare zu Berge!</t>
-  </si>
-  <si>
-    <t>Sie findet immer in Haar in der Suppe.</t>
-  </si>
-  <si>
-    <t>Er lässt nie ein gutes Haar an ihr.</t>
-  </si>
-  <si>
-    <t>Ihr fresst mir noch die Haare vom Kopf.</t>
-  </si>
-  <si>
-    <t>Sie hat Haare auf den Zähnen.</t>
-  </si>
-  <si>
-    <t>Das ist doch haarsträubend.</t>
-  </si>
-  <si>
-    <t>Er kann niemandem ein Haar krümmen.</t>
-  </si>
-  <si>
-    <t>Das wäre um ein Haar schiefgegangen.</t>
-  </si>
-  <si>
-    <t>Sie haben sich mal wieder in die Haare gekriegt.</t>
-  </si>
-  <si>
-    <t>Das ist doch Haarspalterei!</t>
-  </si>
-  <si>
     <t>streng</t>
   </si>
   <si>
@@ -217,12 +127,6 @@
     <t>lieb zu den Kindern</t>
   </si>
   <si>
-    <t>zuverlässig</t>
-  </si>
-  <si>
-    <t>geduldig-ungeduldig</t>
-  </si>
-  <si>
     <t>gut gelaunt</t>
   </si>
   <si>
@@ -232,63 +136,6 @@
     <t>ernst</t>
   </si>
   <si>
-    <t>freundlich-unfreundlich</t>
-  </si>
-  <si>
-    <t>höflich-unhöflich</t>
-  </si>
-  <si>
-    <t>sympatisch-unsympatisch</t>
-  </si>
-  <si>
-    <t>fleißig-faul</t>
-  </si>
-  <si>
-    <t>interessant-langweilig</t>
-  </si>
-  <si>
-    <t>feige-mutig</t>
-  </si>
-  <si>
-    <t>vernünftig-unvernünftig</t>
-  </si>
-  <si>
-    <t>dumm-klug</t>
-  </si>
-  <si>
-    <t>tolerant-intolerant</t>
-  </si>
-  <si>
-    <t>fröhlich-traurig</t>
-  </si>
-  <si>
-    <t>sensibel-unsensibel</t>
-  </si>
-  <si>
-    <t>frech-brav</t>
-  </si>
-  <si>
-    <t>kontaktfreudig-zurückhaltend</t>
-  </si>
-  <si>
-    <t>optimistisch-pessimistisch</t>
-  </si>
-  <si>
-    <t>bescheiden-eingebildet</t>
-  </si>
-  <si>
-    <t>konservativ-progressiv</t>
-  </si>
-  <si>
-    <t>aktiv-passiv</t>
-  </si>
-  <si>
-    <t>lustig-traurig</t>
-  </si>
-  <si>
-    <t>gut-böse</t>
-  </si>
-  <si>
     <t>temperamentvoll</t>
   </si>
   <si>
@@ -313,9 +160,6 @@
     <t>belastbar</t>
   </si>
   <si>
-    <t>offen-verschlossen</t>
-  </si>
-  <si>
     <t>eigenartig</t>
   </si>
   <si>
@@ -370,27 +214,6 @@
     <t>Er benimmt sich wie ein Elefant im Porzellanladen.</t>
   </si>
   <si>
-    <t>Du kannst ein Auge zudrücken.</t>
-  </si>
-  <si>
-    <t>Er hat das Herz auf dem rechten Fleck.</t>
-  </si>
-  <si>
-    <t>rzadkie włosy-gęste włosy</t>
-  </si>
-  <si>
-    <t>schütteres-dichtes Haar</t>
-  </si>
-  <si>
-    <t>altbackene-modische Frisur</t>
-  </si>
-  <si>
-    <t>staroświecka/modna fryzura</t>
-  </si>
-  <si>
-    <t>niechlujny/elegancki</t>
-  </si>
-  <si>
     <t>surowy</t>
   </si>
   <si>
@@ -403,18 +226,6 @@
     <t>miły dla dzieci</t>
   </si>
   <si>
-    <t>niezawodny</t>
-  </si>
-  <si>
-    <t>cierpliwy/niecierpliwy</t>
-  </si>
-  <si>
-    <t>sprawiedliwy/niesprawiedliwy</t>
-  </si>
-  <si>
-    <t>gerecht/ungerecht</t>
-  </si>
-  <si>
     <t>w dobrym humorze</t>
   </si>
   <si>
@@ -424,75 +235,6 @@
     <t>poważny</t>
   </si>
   <si>
-    <t>entspannt/gespannt</t>
-  </si>
-  <si>
-    <t>rozluźniony/spięty</t>
-  </si>
-  <si>
-    <t>przyjazny/nieprzyjazny</t>
-  </si>
-  <si>
-    <t>uprzejmy/nieuprzejmy</t>
-  </si>
-  <si>
-    <t>sympatyczny/niesympatyczny</t>
-  </si>
-  <si>
-    <t>pracowity/leniwy</t>
-  </si>
-  <si>
-    <t>interesujący/nudny</t>
-  </si>
-  <si>
-    <t>tchórzliwy/odważny</t>
-  </si>
-  <si>
-    <t>rozsądny/nierozsądny</t>
-  </si>
-  <si>
-    <t>głupi/mądry</t>
-  </si>
-  <si>
-    <t>tolerancyjny/nietolerancyjny</t>
-  </si>
-  <si>
-    <t>wesoły/smutny</t>
-  </si>
-  <si>
-    <t>czuły/nieczuły</t>
-  </si>
-  <si>
-    <t>bezczelny/grzeczny</t>
-  </si>
-  <si>
-    <t>towarzyski/powściągliwy</t>
-  </si>
-  <si>
-    <t>optymistyczny/pesymistyczny</t>
-  </si>
-  <si>
-    <t>rozluźniony/drobiazgowy</t>
-  </si>
-  <si>
-    <t>locker-pingelig</t>
-  </si>
-  <si>
-    <t>skromny/zarozumiały</t>
-  </si>
-  <si>
-    <t>konserwatywny/postępowy</t>
-  </si>
-  <si>
-    <t>aktywny/pasywny</t>
-  </si>
-  <si>
-    <t>pocieszny/smutny</t>
-  </si>
-  <si>
-    <t>dobry/zły</t>
-  </si>
-  <si>
     <t>żywiołowy</t>
   </si>
   <si>
@@ -520,9 +262,6 @@
     <t>wytrzymały</t>
   </si>
   <si>
-    <t>otwarty-skryty</t>
-  </si>
-  <si>
     <t>specyficzny, osobliwy (człowiek)</t>
   </si>
   <si>
@@ -544,12 +283,6 @@
     <t>porządny, solidny (człowiek)</t>
   </si>
   <si>
-    <t>kultiviert/unkultiviert</t>
-  </si>
-  <si>
-    <t>kulturalny/niekulturalny</t>
-  </si>
-  <si>
     <t>niezrównoważony (człowiek)</t>
   </si>
   <si>
@@ -574,12 +307,6 @@
     <t>ociężały</t>
   </si>
   <si>
-    <t>geschickt/ungeschickt</t>
-  </si>
-  <si>
-    <t>zreczny/niezręczny</t>
-  </si>
-  <si>
     <t>silny</t>
   </si>
   <si>
@@ -589,67 +316,538 @@
     <t>Nie jesteś głupi. (przysł.)</t>
   </si>
   <si>
-    <t>Możesz przymknąć na to oko. (przysł.)</t>
-  </si>
-  <si>
-    <t>On jest altruistą. (przysł.)</t>
-  </si>
-  <si>
-    <t>Zachowuje się jak słoń w składzie porcelany.</t>
-  </si>
-  <si>
-    <t>Er dreht jeden Pfennig dreimal um.</t>
-  </si>
-  <si>
-    <t>On jest bardzo oszczędny. (przysł.)</t>
-  </si>
-  <si>
     <t>Trzeba spokojnie odczekać. (przysł.)</t>
   </si>
   <si>
-    <t>Nie martw się o to. (przysł.)</t>
-  </si>
-  <si>
-    <t>Włosy stają mi dęba. (przysł.)</t>
-  </si>
-  <si>
-    <t>Ona zawsze znajdzie coś do skrytykowania. (przysł.)</t>
-  </si>
-  <si>
-    <t>On zawsze ją krytykuje. (przysł.)</t>
-  </si>
-  <si>
-    <t>Bardzo dużo jecie. (przysł.)</t>
-  </si>
-  <si>
-    <t>Ona szuka kłótni i chce mieć zawsze rację. (przysł.)</t>
-  </si>
-  <si>
-    <t>To jest nie do pomyślenia. (przysł.)</t>
-  </si>
-  <si>
-    <t>On nie skrzywdziłby nikogo. (przysł.)</t>
-  </si>
-  <si>
     <t>gutmütig</t>
   </si>
   <si>
     <t>dobroduszny</t>
   </si>
   <si>
-    <t>Aber das ist doch an den Haaren herbeigezogen!</t>
-  </si>
-  <si>
-    <t>To nie ma żadnego związku z problemem. (przysł.)</t>
-  </si>
-  <si>
-    <t>O mały włos poszłoby źle.</t>
-  </si>
-  <si>
-    <t>Oni znowu się pokłócili. (przysł.)</t>
-  </si>
-  <si>
-    <t>To jest dzielenie włosa na czworo! (przysł.)</t>
+    <t>versprechen</t>
+  </si>
+  <si>
+    <t>Unser Chef hat sich immer für uns eingesetzt.</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>boshaft</t>
+  </si>
+  <si>
+    <t>knauserig</t>
+  </si>
+  <si>
+    <t>korrupt</t>
+  </si>
+  <si>
+    <t>blamieren</t>
+  </si>
+  <si>
+    <t>Feigling</t>
+  </si>
+  <si>
+    <t>Er traute sich nicht, ins Wasser zu springen.</t>
+  </si>
+  <si>
+    <t>Benehmen</t>
+  </si>
+  <si>
+    <t>peinlich</t>
+  </si>
+  <si>
+    <t>sich benehmen</t>
+  </si>
+  <si>
+    <t>Er nimmt keine Rücksicht auf seine Nachbarn.</t>
+  </si>
+  <si>
+    <t>die Rasen mähen</t>
+  </si>
+  <si>
+    <t>schüchtern</t>
+  </si>
+  <si>
+    <t>erbarmungslos</t>
+  </si>
+  <si>
+    <t>andere Leute aus-nutzen</t>
+  </si>
+  <si>
+    <t>sich verhalten</t>
+  </si>
+  <si>
+    <t>unverschämt</t>
+  </si>
+  <si>
+    <t>sich verändern</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>bohren</t>
+  </si>
+  <si>
+    <t>löchern</t>
+  </si>
+  <si>
+    <t>um Auskunft bitten</t>
+  </si>
+  <si>
+    <t>Schalter</t>
+  </si>
+  <si>
+    <t>nach-fragen</t>
+  </si>
+  <si>
+    <t>jedes Wort auf die Goldwaage legen</t>
+  </si>
+  <si>
+    <t>sich mit fremden Federn schmucken</t>
+  </si>
+  <si>
+    <t>den Floh ins Ohf setzen</t>
+  </si>
+  <si>
+    <t>kein Blatt vor den Mund nehmen</t>
+  </si>
+  <si>
+    <t>in Fettnäpfchen tretten</t>
+  </si>
+  <si>
+    <t>beleidigen</t>
+  </si>
+  <si>
+    <t>überlegen</t>
+  </si>
+  <si>
+    <t>empfindlich</t>
+  </si>
+  <si>
+    <t>sich an-geben mit D</t>
+  </si>
+  <si>
+    <t>einen Wunsch wecken</t>
+  </si>
+  <si>
+    <t>etw offen sagen</t>
+  </si>
+  <si>
+    <t>an-lügen</t>
+  </si>
+  <si>
+    <t>Gefühl</t>
+  </si>
+  <si>
+    <t>lieber mit dem Auto als mit dem Fahhrad</t>
+  </si>
+  <si>
+    <t>mit großem Interesse</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>eifersüchtig</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>Stimmung</t>
+  </si>
+  <si>
+    <t>Laune</t>
+  </si>
+  <si>
+    <t>sich wohl-fühlen</t>
+  </si>
+  <si>
+    <t>Das geht dich nichts an.</t>
+  </si>
+  <si>
+    <t>Fußball spielen macht mir immer Spaß.</t>
+  </si>
+  <si>
+    <t>Genuss</t>
+  </si>
+  <si>
+    <t>Toleranz</t>
+  </si>
+  <si>
+    <t>Hass</t>
+  </si>
+  <si>
+    <t>Hoffnung</t>
+  </si>
+  <si>
+    <t>Zweifel</t>
+  </si>
+  <si>
+    <t>Furcht</t>
+  </si>
+  <si>
+    <t>Vorsicht</t>
+  </si>
+  <si>
+    <t>Angst</t>
+  </si>
+  <si>
+    <t>Eifersucht</t>
+  </si>
+  <si>
+    <t>Überraschung</t>
+  </si>
+  <si>
+    <t>Neid</t>
+  </si>
+  <si>
+    <t>tolerieren</t>
+  </si>
+  <si>
+    <t>Verstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich nehme an, </t>
+  </si>
+  <si>
+    <t>przymknąć oko (przysł.)</t>
+  </si>
+  <si>
+    <t>ein Auge zudrücken.</t>
+  </si>
+  <si>
+    <t>On zachowuje się jak słoń w składzie porcelany.</t>
+  </si>
+  <si>
+    <t>Haarspalterei</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>dzielenie włosa na czworo</t>
+  </si>
+  <si>
+    <t>haarsträubend.</t>
+  </si>
+  <si>
+    <t>schiefgehen</t>
+  </si>
+  <si>
+    <t>nie powieść się</t>
+  </si>
+  <si>
+    <t>jeżący włos na głowie</t>
+  </si>
+  <si>
+    <t>obiecywać</t>
+  </si>
+  <si>
+    <t>Nasz szef zawszę się za nami wstawiał</t>
+  </si>
+  <si>
+    <t>sich in der Schule anstrengen</t>
+  </si>
+  <si>
+    <t>starać się w szkole</t>
+  </si>
+  <si>
+    <t>złośliwy</t>
+  </si>
+  <si>
+    <t>skąpy</t>
+  </si>
+  <si>
+    <t>skorumpowany</t>
+  </si>
+  <si>
+    <t>ośmieszyć</t>
+  </si>
+  <si>
+    <t>tchórz</t>
+  </si>
+  <si>
+    <t>On nie odważył się wskoczyć do wody (prät.)</t>
+  </si>
+  <si>
+    <t>zachowanie</t>
+  </si>
+  <si>
+    <t>kłopotliwy, niezręczny</t>
+  </si>
+  <si>
+    <t>zachowywać się</t>
+  </si>
+  <si>
+    <t>kosić trawnik</t>
+  </si>
+  <si>
+    <t>nieśmiały</t>
+  </si>
+  <si>
+    <t>bezlitosny</t>
+  </si>
+  <si>
+    <t>wykorzystywać innych ludzi</t>
+  </si>
+  <si>
+    <t>zachowywać się (v)</t>
+  </si>
+  <si>
+    <t>im Gegensatz zu D</t>
+  </si>
+  <si>
+    <t>w przeciwieństwie do [czegoś]</t>
+  </si>
+  <si>
+    <t>bezwstydyny</t>
+  </si>
+  <si>
+    <t>zmienić się</t>
+  </si>
+  <si>
+    <t>żebrać</t>
+  </si>
+  <si>
+    <t>dick//dünn</t>
+  </si>
+  <si>
+    <t>gruby//chudy</t>
+  </si>
+  <si>
+    <t>hässlich//schön</t>
+  </si>
+  <si>
+    <t>brzydki//ładny</t>
+  </si>
+  <si>
+    <t>übergewichtig//untergewichtig</t>
+  </si>
+  <si>
+    <t>z nadwagą//z niedowagą</t>
+  </si>
+  <si>
+    <t>gepflegt//ungepflegt</t>
+  </si>
+  <si>
+    <t>zadbany//zaniedbany</t>
+  </si>
+  <si>
+    <t>schmutzig//sauber</t>
+  </si>
+  <si>
+    <t>brudny//czysty</t>
+  </si>
+  <si>
+    <t>rundliches//schmales Gesicht</t>
+  </si>
+  <si>
+    <t>okrągła//szczupła twarz</t>
+  </si>
+  <si>
+    <t>gekämmt//ungekämmt</t>
+  </si>
+  <si>
+    <t>uczesany//nieuczesany</t>
+  </si>
+  <si>
+    <t>zerzaust//gut frisiert</t>
+  </si>
+  <si>
+    <t>potargany//dobrze uczesany</t>
+  </si>
+  <si>
+    <t>schütteres//dichtes Haar</t>
+  </si>
+  <si>
+    <t>rzadkie//gęste włosy</t>
+  </si>
+  <si>
+    <t>altbackene//modische Frisur</t>
+  </si>
+  <si>
+    <t>staroświecka//modna fryzura</t>
+  </si>
+  <si>
+    <t>schlampig//elegant</t>
+  </si>
+  <si>
+    <t>niechlujny//elegancki</t>
+  </si>
+  <si>
+    <t>zuverlässig//unzuverlässig</t>
+  </si>
+  <si>
+    <t>niezawodny//zawodny</t>
+  </si>
+  <si>
+    <t>geduldig//ungeduldig</t>
+  </si>
+  <si>
+    <t>cierpliwy//niecierpliwy</t>
+  </si>
+  <si>
+    <t>gerecht//ungerecht</t>
+  </si>
+  <si>
+    <t>sprawiedliwy//niesprawiedliwy</t>
+  </si>
+  <si>
+    <t>entspannt//gespannt</t>
+  </si>
+  <si>
+    <t>rozluźniony//spięty</t>
+  </si>
+  <si>
+    <t>freundlich//unfreundlich</t>
+  </si>
+  <si>
+    <t>przyjazny//nieprzyjazny</t>
+  </si>
+  <si>
+    <t>höflich//unhöflich</t>
+  </si>
+  <si>
+    <t>uprzejmy//nieuprzejmy</t>
+  </si>
+  <si>
+    <t>sympatisch//unsympatisch</t>
+  </si>
+  <si>
+    <t>sympatyczny//niesympatyczny</t>
+  </si>
+  <si>
+    <t>fleißig//faul</t>
+  </si>
+  <si>
+    <t>pracowity//leniwy</t>
+  </si>
+  <si>
+    <t>interessant//langweilig</t>
+  </si>
+  <si>
+    <t>interesujący//nudny</t>
+  </si>
+  <si>
+    <t>feige//mutig</t>
+  </si>
+  <si>
+    <t>tchórzliwy//odważny</t>
+  </si>
+  <si>
+    <t>vernünftig//unvernünftig</t>
+  </si>
+  <si>
+    <t>rozsądny//nierozsądny</t>
+  </si>
+  <si>
+    <t>dumm//klug</t>
+  </si>
+  <si>
+    <t>głupi//mądry</t>
+  </si>
+  <si>
+    <t>tolerant//intolerant</t>
+  </si>
+  <si>
+    <t>tolerancyjny//nietolerancyjny</t>
+  </si>
+  <si>
+    <t>fröhlich//traurig</t>
+  </si>
+  <si>
+    <t>wesoły//smutny</t>
+  </si>
+  <si>
+    <t>sensibel//unsensibel</t>
+  </si>
+  <si>
+    <t>czuły//nieczuły</t>
+  </si>
+  <si>
+    <t>frech//brav</t>
+  </si>
+  <si>
+    <t>bezczelny//grzeczny</t>
+  </si>
+  <si>
+    <t>kontaktfreudig//zurückhaltend</t>
+  </si>
+  <si>
+    <t>towarzyski//powściągliwy</t>
+  </si>
+  <si>
+    <t>optimistisch//pessimistisch</t>
+  </si>
+  <si>
+    <t>optymistyczny//pesymistyczny</t>
+  </si>
+  <si>
+    <t>locker//pingelig</t>
+  </si>
+  <si>
+    <t>rozluźniony//drobiazgowy</t>
+  </si>
+  <si>
+    <t>bescheiden//eingebildet</t>
+  </si>
+  <si>
+    <t>skromny//zarozumiały</t>
+  </si>
+  <si>
+    <t>konservativ//progressiv</t>
+  </si>
+  <si>
+    <t>konserwatywny//postępowy</t>
+  </si>
+  <si>
+    <t>aktiv//passiv</t>
+  </si>
+  <si>
+    <t>aktywny//pasywny</t>
+  </si>
+  <si>
+    <t>lustig//traurig</t>
+  </si>
+  <si>
+    <t>pocieszny//smutny</t>
+  </si>
+  <si>
+    <t>gut//böse</t>
+  </si>
+  <si>
+    <t>dobry//zły</t>
+  </si>
+  <si>
+    <t>offen//verschlossen</t>
+  </si>
+  <si>
+    <t>otwarty//skryty</t>
+  </si>
+  <si>
+    <t>kultiviert//unkultiviert</t>
+  </si>
+  <si>
+    <t>kulturalny//niekulturalny</t>
+  </si>
+  <si>
+    <t>geschickt//ungeschickt</t>
+  </si>
+  <si>
+    <t>zreczny//niezręczny</t>
+  </si>
+  <si>
+    <t>wahać się//zwlekać</t>
+  </si>
+  <si>
+    <t>Großzügigkeit//großzügig</t>
+  </si>
+  <si>
+    <t>wspaniałomyślność//wspaniałomyślny</t>
   </si>
 </sst>
 </file>
@@ -979,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -995,854 +1193,1205 @@
   <sheetData>
     <row r="1" spans="2:3" ht="14.55" customHeight="1">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="14.55" customHeight="1">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="14.55" customHeight="1">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="14.55" customHeight="1">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="14.55" customHeight="1">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="14.55" customHeight="1">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="14.55" customHeight="1">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="14.55" customHeight="1">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="14.55" customHeight="1">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="14.55" customHeight="1">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="14.55" customHeight="1">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="14.55" customHeight="1">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="14.55" customHeight="1">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="14.55" customHeight="1">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="14.55" customHeight="1">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="14.55" customHeight="1">
       <c r="B16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.55" customHeight="1">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.55" customHeight="1">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.55" customHeight="1">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.55" customHeight="1">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.55" customHeight="1">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.55" customHeight="1">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.55" customHeight="1">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.55" customHeight="1">
-      <c r="A24" t="s">
-        <v>189</v>
-      </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.55" customHeight="1">
       <c r="B25" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.55" customHeight="1">
       <c r="B26" t="s">
-        <v>49</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.55" customHeight="1">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.55" customHeight="1">
       <c r="B28" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.55" customHeight="1">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.55" customHeight="1">
       <c r="B30" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.55" customHeight="1">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.55" customHeight="1">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="14.55" customHeight="1">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="14.55" customHeight="1">
       <c r="B34" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="14.55" customHeight="1">
       <c r="B35" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="14.55" customHeight="1">
       <c r="B36" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="14.55" customHeight="1">
       <c r="B37" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="14.55" customHeight="1">
       <c r="B38" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="14.55" customHeight="1">
       <c r="B39" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="14.55" customHeight="1">
       <c r="B40" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="14.55" customHeight="1">
       <c r="B41" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="14.55" customHeight="1">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="14.55" customHeight="1">
       <c r="B43" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="14.55" customHeight="1">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="14.55" customHeight="1">
       <c r="B45" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="14.55" customHeight="1">
       <c r="B46" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="14.55" customHeight="1">
       <c r="B47" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="14.55" customHeight="1">
       <c r="B48" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="14.55" customHeight="1">
       <c r="B49" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="14.55" customHeight="1">
       <c r="B50" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="14.55" customHeight="1">
       <c r="B51" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="14.55" customHeight="1">
       <c r="B52" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="14.55" customHeight="1">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>249</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="14.55" customHeight="1">
       <c r="B54" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="14.55" customHeight="1">
       <c r="B55" t="s">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="14.55" customHeight="1">
       <c r="B56" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="14.55" customHeight="1">
       <c r="B57" t="s">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="14.55" customHeight="1">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="14.55" customHeight="1">
       <c r="B59" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="14.55" customHeight="1">
       <c r="B60" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="14.55" customHeight="1">
       <c r="B61" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="14.55" customHeight="1">
       <c r="B62" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="14.55" customHeight="1">
       <c r="B63" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="14.55" customHeight="1">
       <c r="B64" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.55" customHeight="1">
       <c r="B65" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.55" customHeight="1">
       <c r="B66" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.55" customHeight="1">
       <c r="B67" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.55" customHeight="1">
       <c r="B68" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.55" customHeight="1">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.55" customHeight="1">
       <c r="B70" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.55" customHeight="1">
       <c r="B71" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.55" customHeight="1">
       <c r="B72" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.55" customHeight="1">
       <c r="B73" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.55" customHeight="1">
       <c r="B74" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.55" customHeight="1">
       <c r="B75" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.55" customHeight="1">
       <c r="B76" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.55" customHeight="1">
       <c r="B77" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.55" customHeight="1">
       <c r="B78" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.55" customHeight="1">
-      <c r="A79" t="s">
-        <v>165</v>
-      </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.55" customHeight="1">
       <c r="B80" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="14.55" customHeight="1">
       <c r="B81" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="14.55" customHeight="1">
       <c r="B82" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="14.55" customHeight="1">
       <c r="B83" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="14.55" customHeight="1">
       <c r="B84" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="14.55" customHeight="1">
       <c r="B85" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="14.55" customHeight="1">
       <c r="B86" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="14.55" customHeight="1">
       <c r="B87" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="14.55" customHeight="1">
       <c r="B88" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="14.55" customHeight="1">
       <c r="B89" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="14.55" customHeight="1">
       <c r="B90" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="14.55" customHeight="1">
       <c r="B91" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="14.55" customHeight="1">
       <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="B100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
         <v>109</v>
       </c>
-      <c r="C92" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B93" t="s">
+      <c r="C101" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
         <v>110</v>
       </c>
-      <c r="C93" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B94" t="s">
+      <c r="C102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
         <v>111</v>
       </c>
-      <c r="C94" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B95" t="s">
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" t="s">
         <v>112</v>
       </c>
-      <c r="C95" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B96" t="s">
+      <c r="C104" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" t="s">
         <v>113</v>
       </c>
-      <c r="C96" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B97" t="s">
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
         <v>114</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B98" t="s">
-        <v>115</v>
-      </c>
-      <c r="C98" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B99" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B100" t="s">
+    <row r="110" spans="1:3">
+      <c r="B110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" t="s">
         <v>194</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C113" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B101" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" t="s">
+    <row r="114" spans="1:3">
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B102" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B103" t="s">
-        <v>118</v>
-      </c>
-      <c r="C103" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" ht="14.55" customHeight="1">
-      <c r="B104" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" t="s">
-        <v>206</v>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" t="s">
+        <v>276</v>
+      </c>
+      <c r="C115" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+      <c r="C117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="B145" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>98</v>
+      </c>
+      <c r="B146" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>98</v>
+      </c>
+      <c r="B148" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>98</v>
+      </c>
+      <c r="B150" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>79</v>
+      </c>
+      <c r="B151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>79</v>
+      </c>
+      <c r="B152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>79</v>
+      </c>
+      <c r="B153" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>79</v>
+      </c>
+      <c r="B155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>98</v>
+      </c>
+      <c r="B156" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="B157" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>98</v>
+      </c>
+      <c r="B158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="B159" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
